--- a/ProyectoFinal/vistas/Profesores.xlsx
+++ b/ProyectoFinal/vistas/Profesores.xlsx
@@ -59,30 +59,12 @@
     <t>eabella@adinet.com.uy</t>
   </si>
   <si>
-    <t>40269733</t>
-  </si>
-  <si>
     <t>Alberto</t>
   </si>
   <si>
     <t>Gomez</t>
   </si>
   <si>
-    <t>40269731</t>
-  </si>
-  <si>
-    <t>40263730</t>
-  </si>
-  <si>
-    <t>10269729</t>
-  </si>
-  <si>
-    <t>20269728</t>
-  </si>
-  <si>
-    <t>30569727</t>
-  </si>
-  <si>
     <t>Milton</t>
   </si>
   <si>
@@ -111,6 +93,24 @@
   </si>
   <si>
     <t>Estevez</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>87965462</t>
+  </si>
+  <si>
+    <t>36843532</t>
+  </si>
+  <si>
+    <t>78645444</t>
+  </si>
+  <si>
+    <t>87965121</t>
+  </si>
+  <si>
+    <t>69898982</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,13 +517,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -540,13 +540,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -586,13 +586,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -609,13 +609,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
